--- a/Input_file_MSH.xlsx
+++ b/Input_file_MSH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucadesiena/Documents/MATLAB/MuRAT/MuRAT2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883129D0-6ACA-4B44-8B2A-2950D4377D2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D943E0C7-9A37-1D47-A8D4-1400214319E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2000" windowWidth="25600" windowHeight="12780" xr2:uid="{BECA0A16-C577-CD43-8FC8-88E6B48297E7}"/>
+    <workbookView xWindow="0" yWindow="1420" windowWidth="25600" windowHeight="12780" xr2:uid="{BECA0A16-C577-CD43-8FC8-88E6B48297E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_file_MSH" sheetId="2" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:AS2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>10</v>
